--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888" activeTab="3"/>
+    <workbookView xWindow="1200" yWindow="1020" windowWidth="25620" windowHeight="14740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="3" r:id="rId1"/>
@@ -17,12 +12,17 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Burndown Chart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>20h</t>
+  </si>
+  <si>
+    <t>Structures</t>
   </si>
 </sst>
 </file>
@@ -426,12 +429,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,27 +440,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -526,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,7 +564,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,161 +775,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.83984375" customWidth="1"/>
-    <col min="2" max="2" width="17.41796875" customWidth="1"/>
-    <col min="3" max="3" width="20.5234375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>0.60069444444444442</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>0.60069444444444442</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>308</v>
       </c>
     </row>
@@ -944,6 +947,11 @@
     <hyperlink ref="C10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -951,23 +959,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.7890625" customWidth="1"/>
-    <col min="2" max="2" width="22.20703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.20703125" customWidth="1"/>
-    <col min="4" max="4" width="7.3125" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" customWidth="1"/>
-    <col min="6" max="6" width="13.1015625" customWidth="1"/>
-    <col min="7" max="7" width="10.1015625" customWidth="1"/>
-    <col min="8" max="8" width="14.41796875" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="28">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="28">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1033,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="28">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1113,7 +1121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1133,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" ht="28">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1153,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1215,7 +1223,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1223,26 +1236,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.20703125" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="14.5234375" customWidth="1"/>
-    <col min="4" max="4" width="19.41796875" customWidth="1"/>
-    <col min="5" max="5" width="13.89453125" customWidth="1"/>
-    <col min="6" max="6" width="12.3125" customWidth="1"/>
-    <col min="7" max="7" width="10.41796875" customWidth="1"/>
-    <col min="8" max="8" width="6.7890625" customWidth="1"/>
-    <col min="9" max="9" width="9.1015625" customWidth="1"/>
-    <col min="10" max="10" width="7.7890625" customWidth="1"/>
-    <col min="11" max="11" width="16.89453125" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,11 +1289,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1289,88 +1312,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="19">
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="13">
         <v>41969</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="14">
         <v>180</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <v>180</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="15">
         <f t="shared" ref="G5:G25" si="0">IF(D5="",NA(),D5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1383,16 +1406,16 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="15">
         <f>IF(D6="",NA(),$F$5-SUM($D$6:D6))</f>
         <v>180</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1405,245 +1428,245 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="15">
         <f>IF(D7="",NA(),$F$5-SUM($D$6:D7))</f>
         <v>180</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11">
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="F8" s="21" t="e">
+      <c r="F8" s="15" t="e">
         <f>IF(D8="",NA(),$F$5-SUM($D$6:D8))</f>
         <v>#N/A</v>
       </c>
-      <c r="G8" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="F9" s="21" t="e">
+      <c r="F9" s="15" t="e">
         <f>IF(D9="",NA(),$F$5-SUM($D$6:D9))</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="F10" s="21" t="e">
+      <c r="F10" s="15" t="e">
         <f>IF(D10="",NA(),$F$5-SUM($D$6:D10))</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="F11" s="21" t="e">
+      <c r="F11" s="15" t="e">
         <f>IF(D11="",NA(),$F$5-SUM($D$6:D11))</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="F12" s="21" t="e">
+      <c r="F12" s="15" t="e">
         <f>IF(D12="",NA(),$F$5-SUM($D$6:D12))</f>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="F13" s="21" t="e">
+      <c r="F13" s="15" t="e">
         <f>IF(D13="",NA(),$F$5-SUM($D$6:D13))</f>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14">
         <v>9</v>
       </c>
-      <c r="F14" s="21" t="e">
+      <c r="F14" s="15" t="e">
         <f>IF(D14="",NA(),$F$5-SUM($D$6:D14))</f>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="F15" s="21" t="e">
+      <c r="F15" s="15" t="e">
         <f>IF(D15="",NA(),$F$5-SUM($D$6:D15))</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16">
         <v>11</v>
       </c>
-      <c r="F16" s="21" t="e">
+      <c r="F16" s="15" t="e">
         <f>IF(D16="",NA(),$F$5-SUM($D$6:D16))</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="F17" s="21" t="e">
+      <c r="F17" s="15" t="e">
         <f>IF(D17="",NA(),$F$5-SUM($D$6:D17))</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>13</v>
       </c>
-      <c r="F18" s="21" t="e">
+      <c r="F18" s="15" t="e">
         <f>IF(D18="",NA(),$F$5-SUM($D$6:D18))</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>14</v>
       </c>
-      <c r="F19" s="21" t="e">
+      <c r="F19" s="15" t="e">
         <f>IF(D19="",NA(),$F$5-SUM($D$6:D19))</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>15</v>
       </c>
-      <c r="F20" s="21" t="e">
+      <c r="F20" s="15" t="e">
         <f>IF(D20="",NA(),$F$5-SUM($D$6:D20))</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>16</v>
       </c>
-      <c r="F21" s="21" t="e">
+      <c r="F21" s="15" t="e">
         <f>IF(D21="",NA(),$F$5-SUM($D$6:D21))</f>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22">
         <v>17</v>
       </c>
-      <c r="F22" s="21" t="e">
+      <c r="F22" s="15" t="e">
         <f>IF(D22="",NA(),$F$5-SUM($D$6:D22))</f>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23">
         <v>18</v>
       </c>
-      <c r="F23" s="21" t="e">
+      <c r="F23" s="15" t="e">
         <f>IF(D23="",NA(),$F$5-SUM($D$6:D23))</f>
         <v>#N/A</v>
       </c>
-      <c r="G23" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24">
         <v>19</v>
       </c>
-      <c r="F24" s="21" t="e">
+      <c r="F24" s="15" t="e">
         <f>IF(D24="",NA(),$F$5-SUM($D$6:D24))</f>
         <v>#N/A</v>
       </c>
-      <c r="G24" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25">
         <v>20</v>
       </c>
-      <c r="F25" s="21" t="e">
+      <c r="F25" s="15" t="e">
         <f>IF(D25="",NA(),$F$5-SUM($D$6:D25))</f>
         <v>#N/A</v>
       </c>
-      <c r="G25" s="21" t="e">
+      <c r="G25" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -1656,5 +1679,10 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -264,14 +264,75 @@
     <t>20h</t>
   </si>
   <si>
-    <t>Structures</t>
+    <t>Class Structure</t>
+  </si>
+  <si>
+    <t>Define Packages, Classes &amp; interfaces</t>
+  </si>
+  <si>
+    <t>Business Logic</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>work progress</t>
+  </si>
+  <si>
+    <t>Class Person, Subclass Client,Adress,Doctor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">low </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( high)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (high)</t>
+    </r>
+  </si>
+  <si>
+    <t>Class Development</t>
+  </si>
+  <si>
+    <t>Class User, Journalentry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +389,24 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -417,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -467,6 +546,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,7 +1049,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -968,7 +1057,7 @@
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" customWidth="1"/>
@@ -1012,7 +1101,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>76</v>
@@ -1051,8 +1140,8 @@
       <c r="C4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
+      <c r="D4" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>76</v>
@@ -1101,23 +1190,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="7" spans="1:8" s="23" customFormat="1">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1141,23 +1230,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28">
-      <c r="A9">
+    <row r="9" spans="1:8" s="23" customFormat="1" ht="28">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1234,18 +1323,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
@@ -1291,12 +1380,81 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -195,9 +195,6 @@
     <t>show client base data</t>
   </si>
   <si>
-    <t>create cient</t>
-  </si>
-  <si>
     <t>user administration (CRUD)</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>Class User, Journalentry</t>
+  </si>
+  <si>
+    <t>create client</t>
   </si>
 </sst>
 </file>
@@ -529,6 +529,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,16 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,11 +876,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1098,13 +1098,13 @@
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
@@ -1115,16 +1115,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -1135,16 +1135,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>86</v>
+        <v>66</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>8</v>
@@ -1155,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1178,35 +1178,35 @@
         <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="23" customFormat="1">
-      <c r="A7" s="23">
+    <row r="7" spans="1:8" s="17" customFormat="1">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="25" t="s">
+      <c r="E7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1215,38 +1215,38 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="23" customFormat="1" ht="28">
-      <c r="A9" s="23">
+    <row r="9" spans="1:8" s="17" customFormat="1" ht="28">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="E9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1255,16 +1255,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>8</v>
@@ -1275,16 +1275,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>8</v>
@@ -1295,16 +1295,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>8</v>
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1380,22 +1380,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1404,24 +1404,24 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1441,19 +1441,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1477,32 +1477,32 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       <c r="F4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13">

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -268,12 +268,6 @@
   </si>
   <si>
     <t>Business Logic</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>work progress</t>
   </si>
   <si>
     <t>Class Person, Subclass Client,Adress,Doctor</t>
@@ -322,17 +316,77 @@
     <t>Class Development</t>
   </si>
   <si>
-    <t>Class User, Journalentry</t>
-  </si>
-  <si>
     <t>create client</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Class User</t>
+  </si>
+  <si>
+    <t>Class Journalentry</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>mossd1</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Interface Client</t>
+  </si>
+  <si>
+    <t>UI Client</t>
+  </si>
+  <si>
+    <t>waltd4, zauga5</t>
+  </si>
+  <si>
+    <t>zenhr1</t>
+  </si>
+  <si>
+    <t>UI Login</t>
+  </si>
+  <si>
+    <t>Business Logic Login</t>
+  </si>
+  <si>
+    <t>Main UI Class Structur</t>
+  </si>
+  <si>
+    <t>working progress</t>
+  </si>
+  <si>
+    <t>Develop Business Logic Client</t>
+  </si>
+  <si>
+    <t>Develop Data Source Client</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Main Class</t>
+  </si>
+  <si>
+    <t>schap18,schnf8,zauga5,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +460,14 @@
       <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -492,9 +554,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -558,7 +622,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1101,7 +1167,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>75</v>
@@ -1141,7 +1207,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>75</v>
@@ -1215,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>70</v>
@@ -1323,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1336,7 +1402,7 @@
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
@@ -1395,7 +1461,7 @@
         <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1404,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1415,13 +1481,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1430,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1441,23 +1510,224 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>1.4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>1.7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1.8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>1.9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1020" windowWidth="25620" windowHeight="14740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18420" windowHeight="7110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Burndown Chart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -370,16 +371,79 @@
     <t>Develop Data Source Client</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Main Class</t>
-  </si>
-  <si>
     <t>schap18,schnf8,zauga5,</t>
+  </si>
+  <si>
+    <t>UI Client Data Binding</t>
+  </si>
+  <si>
+    <t>schap18, schnf8</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Client Data</t>
+  </si>
+  <si>
+    <t>Client Logic</t>
+  </si>
+  <si>
+    <t>Login UI</t>
+  </si>
+  <si>
+    <t>Login Logic</t>
+  </si>
+  <si>
+    <t>Main UI Class</t>
+  </si>
+  <si>
+    <t>Clients UI</t>
+  </si>
+  <si>
+    <t>Clients table view with select and search</t>
+  </si>
+  <si>
+    <t>Clients Logic</t>
+  </si>
+  <si>
+    <t>Clients search logic</t>
+  </si>
+  <si>
+    <t>1.12</t>
   </si>
 </sst>
 </file>
@@ -560,7 +624,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -621,11 +685,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -934,14 +1000,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
@@ -956,7 +1022,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -967,7 +1033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -978,7 +1044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -989,7 +1055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1000,7 +1066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1011,7 +1077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1022,7 +1088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1033,7 +1099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1044,7 +1110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1055,7 +1121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1066,7 +1132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1118,19 +1184,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="28">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1176,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="28">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1196,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="28">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1216,7 +1282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1236,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1256,7 +1322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1">
+    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -1276,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1296,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" ht="28">
+    <row r="9" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -1316,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1336,7 +1402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1356,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1389,28 +1455,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1444,9 +1510,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1461,7 +1527,7 @@
         <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1469,13 +1535,16 @@
       <c r="H2">
         <v>2</v>
       </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
       <c r="K2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>1.1000000000000001</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1490,7 +1559,7 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1498,13 +1567,16 @@
       <c r="H3">
         <v>5</v>
       </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
       <c r="K3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>1.3</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1522,15 +1594,18 @@
         <v>91</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>1.4</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1544,6 +1619,9 @@
       <c r="E5" t="s">
         <v>93</v>
       </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
       <c r="H5">
         <v>3</v>
       </c>
@@ -1551,9 +1629,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>1.5</v>
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1574,143 +1652,143 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>1.6</v>
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
         <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>1.7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
       </c>
       <c r="E8" t="s">
         <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>1.8</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>1.9</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
         <v>97</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>2</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>97</v>
@@ -1719,15 +1797,99 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1744,9 +1906,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
@@ -1761,7 +1923,7 @@
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="24" t="s">
@@ -1776,7 +1938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
@@ -1797,7 +1959,7 @@
       </c>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>41969</v>
       </c>
@@ -1821,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1843,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1865,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -1878,7 +2040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -1891,7 +2053,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -1904,7 +2066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
@@ -1917,7 +2079,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
@@ -1930,7 +2092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
@@ -1943,7 +2105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
@@ -1956,7 +2118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -1969,7 +2131,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
@@ -1982,7 +2144,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>12</v>
       </c>
@@ -1995,7 +2157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>13</v>
       </c>
@@ -2008,7 +2170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>14</v>
       </c>
@@ -2021,7 +2183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>15</v>
       </c>
@@ -2034,7 +2196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>16</v>
       </c>
@@ -2047,7 +2209,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>17</v>
       </c>
@@ -2060,7 +2222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>18</v>
       </c>
@@ -2073,7 +2235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>19</v>
       </c>
@@ -2086,7 +2248,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>20</v>
       </c>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -13,7 +13,6 @@
     <sheet name="Burndown Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -444,6 +443,72 @@
   </si>
   <si>
     <t>1.12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Client UI</t>
+  </si>
+  <si>
+    <t>Button for: edit, cancel, save, return</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Data binding fix</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Journalentry UI</t>
+  </si>
+  <si>
+    <t>User Interface for Journalentry</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Journalentry Logic</t>
+  </si>
+  <si>
+    <t>Logic for Journalentry</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Menu for Application</t>
+  </si>
+  <si>
+    <t>Menu Logic</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Doctor as Link</t>
+  </si>
+  <si>
+    <t>Emergency Contact as Link</t>
+  </si>
+  <si>
+    <t>Windowsize for mobile</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Navigation for UI</t>
   </si>
 </sst>
 </file>
@@ -667,6 +732,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,8 +752,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1008,11 +1073,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1455,15 +1520,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
@@ -1476,7 +1541,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1511,7 +1576,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B2">
@@ -1543,7 +1608,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>110</v>
       </c>
       <c r="B3">
@@ -1575,7 +1640,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B4">
@@ -1604,7 +1669,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>112</v>
       </c>
       <c r="B5">
@@ -1629,8 +1694,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B6">
@@ -1658,8 +1723,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>114</v>
       </c>
       <c r="B7">
@@ -1687,8 +1752,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B8">
@@ -1716,8 +1781,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B9">
@@ -1745,8 +1810,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B10">
@@ -1774,8 +1839,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B11">
@@ -1803,8 +1868,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B12">
@@ -1833,7 +1898,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B13">
@@ -1862,7 +1927,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="21" t="s">
         <v>128</v>
       </c>
       <c r="B14">
@@ -1884,6 +1949,267 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1909,32 +2235,32 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1957,7 +2283,7 @@
       <c r="F4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13">

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>Navigation for UI</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>State Pattern</t>
+  </si>
+  <si>
+    <t>implementation of the state pattern</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
@@ -689,7 +701,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -751,6 +763,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1520,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,10 +1548,11 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="9" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1562,13 +1578,13 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1597,10 +1613,10 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="9">
         <v>2</v>
       </c>
       <c r="K2" t="s">
@@ -1629,10 +1645,10 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="9">
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -1658,10 +1674,10 @@
       <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
         <v>1</v>
       </c>
       <c r="K4" t="s">
@@ -1687,7 +1703,7 @@
       <c r="F5" t="s">
         <v>91</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>3</v>
       </c>
       <c r="K5" t="s">
@@ -1713,10 +1729,10 @@
       <c r="F6" t="s">
         <v>96</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>10</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="9">
         <v>19</v>
       </c>
       <c r="K6" t="s">
@@ -1742,10 +1758,10 @@
       <c r="F7" t="s">
         <v>106</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="9">
         <v>5</v>
       </c>
       <c r="K7" t="s">
@@ -1771,10 +1787,10 @@
       <c r="F8" t="s">
         <v>91</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="9">
         <v>2</v>
       </c>
       <c r="K8" t="s">
@@ -1800,10 +1816,10 @@
       <c r="F9" t="s">
         <v>97</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
@@ -1829,10 +1845,10 @@
       <c r="F10" t="s">
         <v>97</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="9">
         <v>1</v>
       </c>
       <c r="K10" t="s">
@@ -1858,10 +1874,10 @@
       <c r="F11" t="s">
         <v>97</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
         <v>0</v>
       </c>
       <c r="K11" t="s">
@@ -1887,10 +1903,10 @@
       <c r="F12" t="s">
         <v>97</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
         <v>1</v>
       </c>
       <c r="K12" t="s">
@@ -1916,10 +1932,10 @@
       <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
         <v>1</v>
       </c>
       <c r="K13" t="s">
@@ -1945,7 +1961,7 @@
       <c r="F14" t="s">
         <v>97</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <v>2</v>
       </c>
       <c r="K14" t="s">
@@ -1974,7 +1990,7 @@
       <c r="G16" t="s">
         <v>5</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="9">
         <v>1</v>
       </c>
       <c r="K16" t="s">
@@ -2003,7 +2019,7 @@
       <c r="G17" t="s">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <v>2</v>
       </c>
       <c r="K17" t="s">
@@ -2032,7 +2048,7 @@
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="9">
         <v>2</v>
       </c>
       <c r="K18" t="s">
@@ -2061,7 +2077,7 @@
       <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
         <v>2</v>
       </c>
       <c r="K19" t="s">
@@ -2090,7 +2106,7 @@
       <c r="G20" t="s">
         <v>5</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="9">
         <v>2</v>
       </c>
       <c r="K20" t="s">
@@ -2119,7 +2135,7 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="9">
         <v>3</v>
       </c>
       <c r="K21" t="s">
@@ -2148,7 +2164,7 @@
       <c r="G22" t="s">
         <v>7</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="9">
         <v>1</v>
       </c>
       <c r="K22" t="s">
@@ -2177,7 +2193,7 @@
       <c r="G23" t="s">
         <v>7</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="9">
         <v>1</v>
       </c>
       <c r="K23" t="s">
@@ -2206,11 +2222,40 @@
       <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="9">
         <v>2</v>
       </c>
       <c r="K24" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="18420" windowHeight="7110" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18420" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="3" r:id="rId1"/>
-    <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
+    <sheet name="Product Backlog" sheetId="5" r:id="rId2"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Burndown Chart" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -48,12 +48,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>40h</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -186,81 +180,9 @@
     <t>mossd1@bfh.ch</t>
   </si>
   <si>
-    <t>Login process</t>
-  </si>
-  <si>
-    <t>show news entrys</t>
-  </si>
-  <si>
-    <t>show client base data</t>
-  </si>
-  <si>
-    <t>user administration (CRUD)</t>
-  </si>
-  <si>
-    <t>permission handling</t>
-  </si>
-  <si>
-    <t>CRUD journal entrys</t>
-  </si>
-  <si>
-    <t>drug database</t>
-  </si>
-  <si>
-    <t>CRUD prescriptions</t>
-  </si>
-  <si>
-    <t>CRUD doctor</t>
-  </si>
-  <si>
-    <t>CRUD contacts</t>
-  </si>
-  <si>
-    <t>Login process including verification, authentication and authorization</t>
-  </si>
-  <si>
-    <t>Create Read Update Delete system users</t>
-  </si>
-  <si>
-    <t>integradte handling methods for permission levels</t>
-  </si>
-  <si>
-    <t>Create Read Update Delete contacts</t>
-  </si>
-  <si>
-    <t>displays latest news</t>
-  </si>
-  <si>
-    <t>show the clients base data</t>
-  </si>
-  <si>
-    <t>create a new client</t>
-  </si>
-  <si>
-    <t>Create Read Update Delete journal entrys</t>
-  </si>
-  <si>
-    <t>implement the client database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Read Update Delete </t>
-  </si>
-  <si>
-    <t>Create Read Update Delete doctors</t>
-  </si>
-  <si>
     <t>5h</t>
   </si>
   <si>
-    <t>10h</t>
-  </si>
-  <si>
-    <t>60h</t>
-  </si>
-  <si>
-    <t>20h</t>
-  </si>
-  <si>
     <t>Class Structure</t>
   </si>
   <si>
@@ -271,26 +193,6 @@
   </si>
   <si>
     <t>Class Person, Subclass Client,Adress,Doctor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">low </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>( high)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -316,9 +218,6 @@
     <t>Class Development</t>
   </si>
   <si>
-    <t>create client</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -517,17 +416,141 @@
     <t>State Pattern</t>
   </si>
   <si>
-    <t>implementation of the state pattern</t>
-  </si>
-  <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>implementation of state pattern for Menu</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>I want to login as a health visitor</t>
+  </si>
+  <si>
+    <t>My home view shows the three latest newsentries for my clients as well as my next appointment</t>
+  </si>
+  <si>
+    <t>I want to display the full appointment by clicking onto the next appointment view</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>I want to navigate to another page</t>
+  </si>
+  <si>
+    <t>Home view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are news for one of my clients and I want to expand a newsentry to view the full post </t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>I need to make a new appointment in my agenda</t>
+  </si>
+  <si>
+    <t>I want to modify an appointment in my agenda</t>
+  </si>
+  <si>
+    <t>I want to delete an appointment in my agenda</t>
+  </si>
+  <si>
+    <t>I want to view the full information for any of my 
+appointments in my agenda</t>
+  </si>
+  <si>
+    <t>Clients View</t>
+  </si>
+  <si>
+    <t>As any user of the app I want to look up a (new) client</t>
+  </si>
+  <si>
+    <t>I need to know which page I am located exactly</t>
+  </si>
+  <si>
+    <t>I want to log out</t>
+  </si>
+  <si>
+    <t>I want to change user settings</t>
+  </si>
+  <si>
+    <t>I want to see which three recent clients I've looked up</t>
+  </si>
+  <si>
+    <t>Client View / Client Details</t>
+  </si>
+  <si>
+    <t>I need to know wether my client is classified harmless or not</t>
+  </si>
+  <si>
+    <t>primary informations as full name, status and a picture need to be shown at first sight after having selected a client</t>
+  </si>
+  <si>
+    <t>I need to know the address of my client</t>
+  </si>
+  <si>
+    <t>My client has had an accident, I need to contact his emergency contact</t>
+  </si>
+  <si>
+    <t>I have a question about the medication of my client and need to know which is his attending physician.</t>
+  </si>
+  <si>
+    <t>My client has moved to another address, as an administrator I need to change the client data</t>
+  </si>
+  <si>
+    <t>My client has improved, as a doctor I want to change his status to harmless</t>
+  </si>
+  <si>
+    <t>I need to check the journal entries for a specific client</t>
+  </si>
+  <si>
+    <t>I need to know the medication prescribed for my client</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>I need to have a list of the drugs currently prescribed to my client</t>
+  </si>
+  <si>
+    <t>My client can't remember wether he has to swallow the small white pill in the morning or as well in the evening. I need to check the prescription</t>
+  </si>
+  <si>
+    <t>My client has drugs without packaging, I need to see a picture of my clients drugs to check wether it is one of the prescribed drugs or not</t>
+  </si>
+  <si>
+    <t>My client needs more drugs, I need to know where he/she usually hands in his/her prescription</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>I want to call the attending physician of one of my clients, I want to look him/her up in the contact list</t>
+  </si>
+  <si>
+    <t>I want to save a new local contact to my contact list</t>
+  </si>
+  <si>
+    <t>Journal Entry</t>
+  </si>
+  <si>
+    <t>There are news for one of my clients and I want to post a new journal entry about it</t>
+  </si>
+  <si>
+    <t>I want to delete one of my journal entries</t>
+  </si>
+  <si>
+    <t>I want to modify one of my journal entries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,12 +610,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -612,7 +629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +678,18 @@
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -698,10 +727,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -709,9 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,18 +760,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,9 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1088,149 +1125,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="8">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>30</v>
+      <c r="C13" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="8">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.60069444444444442</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="8">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.60069444444444442</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>308</v>
       </c>
     </row>
@@ -1258,278 +1295,372 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
+      <c r="B31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1537,31 +1668,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="8" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1570,692 +1701,692 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>15</v>
+      <c r="H1" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="28" t="s">
         <v>14</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>109</v>
+      <c r="A2" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>2</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>110</v>
+      <c r="A3" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>5</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>111</v>
+      <c r="A4" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="9">
+        <v>63</v>
+      </c>
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>112</v>
+      <c r="A5" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="9">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="9">
+        <v>68</v>
+      </c>
+      <c r="H6" s="8">
         <v>10</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>114</v>
+      <c r="A7" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="9">
+        <v>78</v>
+      </c>
+      <c r="H7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>115</v>
+      <c r="A8" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="9">
+        <v>63</v>
+      </c>
+      <c r="H8" s="8">
         <v>2</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>116</v>
+      <c r="A9" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="9">
+        <v>69</v>
+      </c>
+      <c r="H9" s="8">
         <v>3</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>117</v>
+      <c r="A10" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="9">
+        <v>69</v>
+      </c>
+      <c r="H10" s="8">
         <v>2</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>108</v>
+      <c r="A11" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="9">
+        <v>69</v>
+      </c>
+      <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>107</v>
+      <c r="A12" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="9">
+        <v>69</v>
+      </c>
+      <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>118</v>
+      <c r="A13" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="9">
+        <v>69</v>
+      </c>
+      <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>128</v>
+      <c r="A14" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="9">
+        <v>69</v>
+      </c>
+      <c r="H14" s="8">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>129</v>
+      <c r="A16" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>132</v>
+      <c r="A17" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>134</v>
+      <c r="A18" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>137</v>
+      <c r="A19" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>140</v>
+      <c r="A20" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>143</v>
+      <c r="A21" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>147</v>
+      <c r="A22" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>148</v>
+      <c r="A23" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>149</v>
+      <c r="A24" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>151</v>
+      <c r="A25" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>154</v>
+        <v>125</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2274,82 +2405,82 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="26" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27" t="s">
+      <c r="B4" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="27"/>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>41969</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>180</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>180</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f t="shared" ref="G5:G25" si="0">IF(D5="",NA(),D5)</f>
         <v>0</v>
       </c>
@@ -2367,11 +2498,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>IF(D6="",NA(),$F$5-SUM($D$6:D6))</f>
         <v>180</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2389,11 +2520,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f>IF(D7="",NA(),$F$5-SUM($D$6:D7))</f>
         <v>180</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2402,11 +2533,11 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="F8" s="15" t="e">
+      <c r="F8" s="14" t="e">
         <f>IF(D8="",NA(),$F$5-SUM($D$6:D8))</f>
         <v>#N/A</v>
       </c>
-      <c r="G8" s="15" t="e">
+      <c r="G8" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2415,11 +2546,11 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="F9" s="15" t="e">
+      <c r="F9" s="14" t="e">
         <f>IF(D9="",NA(),$F$5-SUM($D$6:D9))</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="15" t="e">
+      <c r="G9" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2428,11 +2559,11 @@
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="F10" s="15" t="e">
+      <c r="F10" s="14" t="e">
         <f>IF(D10="",NA(),$F$5-SUM($D$6:D10))</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="15" t="e">
+      <c r="G10" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2441,11 +2572,11 @@
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="F11" s="15" t="e">
+      <c r="F11" s="14" t="e">
         <f>IF(D11="",NA(),$F$5-SUM($D$6:D11))</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="15" t="e">
+      <c r="G11" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2454,11 +2585,11 @@
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="F12" s="15" t="e">
+      <c r="F12" s="14" t="e">
         <f>IF(D12="",NA(),$F$5-SUM($D$6:D12))</f>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="15" t="e">
+      <c r="G12" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2467,11 +2598,11 @@
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="F13" s="15" t="e">
+      <c r="F13" s="14" t="e">
         <f>IF(D13="",NA(),$F$5-SUM($D$6:D13))</f>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="15" t="e">
+      <c r="G13" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2480,11 +2611,11 @@
       <c r="B14">
         <v>9</v>
       </c>
-      <c r="F14" s="15" t="e">
+      <c r="F14" s="14" t="e">
         <f>IF(D14="",NA(),$F$5-SUM($D$6:D14))</f>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="15" t="e">
+      <c r="G14" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2493,11 +2624,11 @@
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="F15" s="15" t="e">
+      <c r="F15" s="14" t="e">
         <f>IF(D15="",NA(),$F$5-SUM($D$6:D15))</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="15" t="e">
+      <c r="G15" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2506,11 +2637,11 @@
       <c r="B16">
         <v>11</v>
       </c>
-      <c r="F16" s="15" t="e">
+      <c r="F16" s="14" t="e">
         <f>IF(D16="",NA(),$F$5-SUM($D$6:D16))</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="15" t="e">
+      <c r="G16" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2519,11 +2650,11 @@
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="F17" s="15" t="e">
+      <c r="F17" s="14" t="e">
         <f>IF(D17="",NA(),$F$5-SUM($D$6:D17))</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="15" t="e">
+      <c r="G17" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2532,11 +2663,11 @@
       <c r="B18">
         <v>13</v>
       </c>
-      <c r="F18" s="15" t="e">
+      <c r="F18" s="14" t="e">
         <f>IF(D18="",NA(),$F$5-SUM($D$6:D18))</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="15" t="e">
+      <c r="G18" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2545,11 +2676,11 @@
       <c r="B19">
         <v>14</v>
       </c>
-      <c r="F19" s="15" t="e">
+      <c r="F19" s="14" t="e">
         <f>IF(D19="",NA(),$F$5-SUM($D$6:D19))</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="15" t="e">
+      <c r="G19" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2558,11 +2689,11 @@
       <c r="B20">
         <v>15</v>
       </c>
-      <c r="F20" s="15" t="e">
+      <c r="F20" s="14" t="e">
         <f>IF(D20="",NA(),$F$5-SUM($D$6:D20))</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="15" t="e">
+      <c r="G20" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2571,11 +2702,11 @@
       <c r="B21">
         <v>16</v>
       </c>
-      <c r="F21" s="15" t="e">
+      <c r="F21" s="14" t="e">
         <f>IF(D21="",NA(),$F$5-SUM($D$6:D21))</f>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="15" t="e">
+      <c r="G21" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2584,11 +2715,11 @@
       <c r="B22">
         <v>17</v>
       </c>
-      <c r="F22" s="15" t="e">
+      <c r="F22" s="14" t="e">
         <f>IF(D22="",NA(),$F$5-SUM($D$6:D22))</f>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="15" t="e">
+      <c r="G22" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2597,11 +2728,11 @@
       <c r="B23">
         <v>18</v>
       </c>
-      <c r="F23" s="15" t="e">
+      <c r="F23" s="14" t="e">
         <f>IF(D23="",NA(),$F$5-SUM($D$6:D23))</f>
         <v>#N/A</v>
       </c>
-      <c r="G23" s="15" t="e">
+      <c r="G23" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2610,11 +2741,11 @@
       <c r="B24">
         <v>19</v>
       </c>
-      <c r="F24" s="15" t="e">
+      <c r="F24" s="14" t="e">
         <f>IF(D24="",NA(),$F$5-SUM($D$6:D24))</f>
         <v>#N/A</v>
       </c>
-      <c r="G24" s="15" t="e">
+      <c r="G24" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2623,11 +2754,11 @@
       <c r="B25">
         <v>20</v>
       </c>
-      <c r="F25" s="15" t="e">
+      <c r="F25" s="14" t="e">
         <f>IF(D25="",NA(),$F$5-SUM($D$6:D25))</f>
         <v>#N/A</v>
       </c>
-      <c r="G25" s="15" t="e">
+      <c r="G25" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\SkyDrive\Dokumente\Eclipse Sources\ch.bfh.btx8081.w2014.red.git\doc\task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="18420" windowHeight="7110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18420" windowHeight="7110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="3" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Burndown Chart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -416,9 +421,6 @@
     <t>State Pattern</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>implementation of state pattern for Menu</t>
   </si>
   <si>
@@ -544,6 +546,12 @@
   </si>
   <si>
     <t>I want to modify one of my journal entries</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Lcomplete login logic with password hash compare and users</t>
   </si>
 </sst>
 </file>
@@ -808,7 +816,7 @@
   <cellStyles count="4">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1117,14 +1125,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.83984375" customWidth="1"/>
+    <col min="2" max="2" width="17.41796875" customWidth="1"/>
+    <col min="3" max="3" width="20.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
@@ -1139,7 +1147,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1150,7 +1158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1183,7 +1191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1194,7 +1202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1205,7 +1213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1249,7 +1257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1297,24 +1305,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="3.83984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.15625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.15625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1340,15 +1348,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>57</v>
@@ -1360,299 +1368,299 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="H6" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="H11" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="19"/>
       <c r="C13" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="H24" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
+      <c r="H26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
+      <c r="H27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="H28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="H29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="H30" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="H31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>62</v>
@@ -1666,28 +1674,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.83984375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="7.26171875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" customWidth="1"/>
+    <col min="6" max="6" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.41796875" customWidth="1"/>
+    <col min="8" max="8" width="16.41796875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.41796875" customWidth="1"/>
+    <col min="10" max="10" width="15.26171875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>81</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="16" t="s">
         <v>82</v>
       </c>
@@ -1786,7 +1794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
         <v>83</v>
       </c>
@@ -1815,7 +1823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
         <v>84</v>
       </c>
@@ -1841,7 +1849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16" t="s">
         <v>85</v>
       </c>
@@ -1870,7 +1878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
         <v>86</v>
       </c>
@@ -1899,7 +1907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16" t="s">
         <v>87</v>
       </c>
@@ -1928,7 +1936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="16" t="s">
         <v>88</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="16" t="s">
         <v>89</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16" t="s">
         <v>80</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="16" t="s">
         <v>79</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="16" t="s">
         <v>90</v>
       </c>
@@ -2073,7 +2081,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="16" t="s">
         <v>100</v>
       </c>
@@ -2099,7 +2107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="16" t="s">
         <v>101</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="16" t="s">
         <v>104</v>
       </c>
@@ -2153,11 +2161,14 @@
       <c r="H17" s="8">
         <v>2</v>
       </c>
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
       <c r="K17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="16" t="s">
         <v>106</v>
       </c>
@@ -2186,7 +2197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="16" t="s">
         <v>109</v>
       </c>
@@ -2215,7 +2226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="16" t="s">
         <v>112</v>
       </c>
@@ -2244,7 +2255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="16" t="s">
         <v>115</v>
       </c>
@@ -2273,7 +2284,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="16" t="s">
         <v>119</v>
       </c>
@@ -2302,7 +2313,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="16" t="s">
         <v>120</v>
       </c>
@@ -2331,7 +2342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="16" t="s">
         <v>121</v>
       </c>
@@ -2360,7 +2371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="16" t="s">
         <v>123</v>
       </c>
@@ -2371,22 +2382,51 @@
         <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>125</v>
+        <v>5</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
       </c>
       <c r="K25" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="8">
+        <v>10</v>
+      </c>
+      <c r="K26" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2408,9 +2448,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="27" t="s">
         <v>32</v>
       </c>
@@ -2425,7 +2465,7 @@
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="29" t="s">
@@ -2440,7 +2480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
@@ -2461,7 +2501,7 @@
       </c>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12">
         <v>41969</v>
       </c>
@@ -2485,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2507,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>2</v>
       </c>
@@ -2529,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>3</v>
       </c>
@@ -2542,7 +2582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>4</v>
       </c>
@@ -2555,7 +2595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>5</v>
       </c>
@@ -2568,7 +2608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>6</v>
       </c>
@@ -2581,7 +2621,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>7</v>
       </c>
@@ -2594,7 +2634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>8</v>
       </c>
@@ -2607,7 +2647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>9</v>
       </c>
@@ -2620,7 +2660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>10</v>
       </c>
@@ -2633,7 +2673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>11</v>
       </c>
@@ -2646,7 +2686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <v>12</v>
       </c>
@@ -2659,7 +2699,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <v>13</v>
       </c>
@@ -2672,7 +2712,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <v>14</v>
       </c>
@@ -2685,7 +2725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <v>15</v>
       </c>
@@ -2698,7 +2738,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <v>16</v>
       </c>
@@ -2711,7 +2751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <v>17</v>
       </c>
@@ -2724,7 +2764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <v>18</v>
       </c>
@@ -2737,7 +2777,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
         <v>19</v>
       </c>
@@ -2750,7 +2790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
         <v>20</v>
       </c>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\SkyDrive\Dokumente\Eclipse Sources\ch.bfh.btx8081.w2014.red.git\doc\task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18420" windowHeight="7110" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18420" windowHeight="7110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="3" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Burndown Chart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -551,7 +547,7 @@
     <t>2.10</t>
   </si>
   <si>
-    <t>Lcomplete login logic with password hash compare and users</t>
+    <t>complete login logic with password hash compare and users</t>
   </si>
 </sst>
 </file>
@@ -816,7 +812,7 @@
   <cellStyles count="4">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -833,9 +829,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -873,7 +869,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -945,7 +941,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1125,14 +1121,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83984375" customWidth="1"/>
-    <col min="2" max="2" width="17.41796875" customWidth="1"/>
-    <col min="3" max="3" width="20.41796875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
@@ -1147,7 +1143,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1169,7 +1165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1180,7 +1176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1202,7 +1198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1213,7 +1209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1224,7 +1220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1235,7 +1231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1246,7 +1242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1309,20 +1305,20 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.15625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.15625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.26171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="2"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1382,7 +1378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>141</v>
       </c>
@@ -1390,7 +1386,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>142</v>
       </c>
@@ -1398,7 +1394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>143</v>
       </c>
@@ -1406,7 +1402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1420,7 +1416,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>133</v>
       </c>
@@ -1428,7 +1424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>129</v>
       </c>
@@ -1436,7 +1432,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1450,7 +1446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>135</v>
       </c>
@@ -1458,7 +1454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
         <v>136</v>
@@ -1467,7 +1463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="18" t="s">
         <v>137</v>
@@ -1476,7 +1472,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -1490,7 +1486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>144</v>
       </c>
@@ -1498,7 +1494,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -1512,7 +1508,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>147</v>
       </c>
@@ -1520,7 +1516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>148</v>
       </c>
@@ -1528,7 +1524,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>149</v>
       </c>
@@ -1536,7 +1532,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>150</v>
       </c>
@@ -1544,7 +1540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
         <v>151</v>
       </c>
@@ -1552,7 +1548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
         <v>152</v>
       </c>
@@ -1560,7 +1556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>153</v>
       </c>
@@ -1568,7 +1564,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>154</v>
       </c>
@@ -1576,7 +1572,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>7</v>
       </c>
@@ -1590,7 +1586,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>157</v>
       </c>
@@ -1598,7 +1594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>158</v>
       </c>
@@ -1606,7 +1602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>159</v>
       </c>
@@ -1614,7 +1610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>8</v>
       </c>
@@ -1628,7 +1624,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>162</v>
       </c>
@@ -1636,7 +1632,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -1650,7 +1646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
@@ -1658,7 +1654,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>165</v>
       </c>
@@ -1676,26 +1672,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83984375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="7.26171875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="43.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" customWidth="1"/>
-    <col min="6" max="6" width="21.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.41796875" customWidth="1"/>
-    <col min="8" max="8" width="16.41796875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.41796875" customWidth="1"/>
-    <col min="10" max="10" width="15.26171875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.83984375" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>81</v>
       </c>
@@ -1762,7 +1758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>82</v>
       </c>
@@ -1794,7 +1790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>83</v>
       </c>
@@ -1823,7 +1819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>84</v>
       </c>
@@ -1849,7 +1845,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>85</v>
       </c>
@@ -1878,7 +1874,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>86</v>
       </c>
@@ -1907,7 +1903,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>87</v>
       </c>
@@ -1936,7 +1932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>88</v>
       </c>
@@ -1965,7 +1961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>89</v>
       </c>
@@ -1994,7 +1990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>80</v>
       </c>
@@ -2023,7 +2019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>79</v>
       </c>
@@ -2052,7 +2048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>90</v>
       </c>
@@ -2081,7 +2077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>100</v>
       </c>
@@ -2107,7 +2103,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>101</v>
       </c>
@@ -2133,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>104</v>
       </c>
@@ -2168,7 +2164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>106</v>
       </c>
@@ -2197,7 +2193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>109</v>
       </c>
@@ -2226,7 +2222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>112</v>
       </c>
@@ -2255,7 +2251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>115</v>
       </c>
@@ -2284,7 +2280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>119</v>
       </c>
@@ -2313,7 +2309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>120</v>
       </c>
@@ -2342,7 +2338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>121</v>
       </c>
@@ -2367,11 +2363,14 @@
       <c r="H24" s="8">
         <v>2</v>
       </c>
+      <c r="J24" s="8">
+        <v>5</v>
+      </c>
       <c r="K24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>123</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>167</v>
       </c>
@@ -2448,9 +2447,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>32</v>
       </c>
@@ -2465,7 +2464,7 @@
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="29" t="s">
@@ -2480,7 +2479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
@@ -2501,7 +2500,7 @@
       </c>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>41969</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
@@ -2647,7 +2646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -2673,7 +2672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>12</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>13</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>14</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>15</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>16</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>17</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>18</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>19</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>20</v>
       </c>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="18420" windowHeight="7110" activeTab="2"/>
   </bookViews>
@@ -12,8 +17,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Burndown Chart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -548,6 +552,9 @@
   </si>
   <si>
     <t>complete login logic with password hash compare and users</t>
+  </si>
+  <si>
+    <t>work in progress</t>
   </si>
 </sst>
 </file>
@@ -812,7 +819,7 @@
   <cellStyles count="4">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,9 +836,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -869,9 +876,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,7 +913,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,7 +948,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1672,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +1878,7 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1900,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1955,10 +1962,10 @@
         <v>3</v>
       </c>
       <c r="J9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2013,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2074,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2129,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2247,8 +2254,11 @@
       <c r="H20" s="8">
         <v>2</v>
       </c>
+      <c r="J20" s="8">
+        <v>2</v>
+      </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2424,8 +2434,11 @@
       <c r="H26" s="8">
         <v>10</v>
       </c>
+      <c r="J26" s="8">
+        <v>10</v>
+      </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="18420" windowHeight="7110" activeTab="2"/>
+    <workbookView xWindow="540" yWindow="540" windowWidth="27540" windowHeight="16940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="3" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Burndown Chart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -355,9 +350,6 @@
     <t>Client UI</t>
   </si>
   <si>
-    <t>Button for: edit, cancel, save, return</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -555,6 +547,75 @@
   </si>
   <si>
     <t>work in progress</t>
+  </si>
+  <si>
+    <t>Button for: edit, cancel, save, return inkl. Logic</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Client View</t>
+  </si>
+  <si>
+    <t>Dropdown for status</t>
+  </si>
+  <si>
+    <t>3.1.</t>
+  </si>
+  <si>
+    <t>Details View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New View for Details </t>
+  </si>
+  <si>
+    <t>3.2.</t>
+  </si>
+  <si>
+    <t>Menu functionality</t>
+  </si>
+  <si>
+    <t>3.3.</t>
+  </si>
+  <si>
+    <t>3.4.</t>
+  </si>
+  <si>
+    <t>3.5.</t>
+  </si>
+  <si>
+    <t>Journalentry</t>
+  </si>
+  <si>
+    <t>Journal functionality</t>
+  </si>
+  <si>
+    <t>3.6.</t>
+  </si>
+  <si>
+    <t>Client Picture</t>
+  </si>
+  <si>
+    <t>3.7.</t>
+  </si>
+  <si>
+    <t>Presentation for target audience</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+  </si>
+  <si>
+    <t>3.8.</t>
+  </si>
+  <si>
+    <t>Login logic</t>
+  </si>
+  <si>
+    <t>Log out possibility</t>
   </si>
 </sst>
 </file>
@@ -640,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,18 +750,6 @@
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -735,13 +784,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -785,18 +837,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,9 +856,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+  <cellStyles count="7">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -878,7 +921,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,7 +956,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1128,19 +1171,19 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1150,7 +1193,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1161,7 +1204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1183,7 +1226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1194,7 +1237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1205,7 +1248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1216,7 +1259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1227,7 +1270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1238,7 +1281,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1249,7 +1292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1260,7 +1303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1308,24 +1351,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="3.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="28">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1351,15 +1394,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>57</v>
@@ -1368,302 +1411,302 @@
         <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="H6" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28">
+      <c r="C8" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="H9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="19" customFormat="1" ht="28">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="H11" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="19" customFormat="1">
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" s="19"/>
       <c r="C13" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="19">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28">
       <c r="A16" s="2">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28">
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="C19" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28">
       <c r="C20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
+    <row r="21" spans="1:8" s="19" customFormat="1" ht="28">
+      <c r="C21" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="19" customFormat="1">
+      <c r="C22" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="23" t="s">
+      <c r="H22" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+      <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="H24" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28">
+      <c r="C26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
+      <c r="H26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28">
+      <c r="C27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
+      <c r="H27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28">
+      <c r="C28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="H28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28">
       <c r="A29" s="2">
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="H29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="H30" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="H31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>62</v>
@@ -1672,33 +1715,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="16" t="s">
         <v>81</v>
       </c>
@@ -1765,7 +1813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="16" t="s">
         <v>82</v>
       </c>
@@ -1797,7 +1845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="16" t="s">
         <v>83</v>
       </c>
@@ -1826,7 +1874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="16" t="s">
         <v>84</v>
       </c>
@@ -1852,7 +1900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="16" t="s">
         <v>85</v>
       </c>
@@ -1878,10 +1926,10 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="16" t="s">
         <v>86</v>
       </c>
@@ -1907,10 +1955,10 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
         <v>87</v>
       </c>
@@ -1939,7 +1987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="16" t="s">
         <v>88</v>
       </c>
@@ -1968,7 +2016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="16" t="s">
         <v>89</v>
       </c>
@@ -1997,7 +2045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="16" t="s">
         <v>80</v>
       </c>
@@ -2026,7 +2074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="16" t="s">
         <v>79</v>
       </c>
@@ -2055,7 +2103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="16" t="s">
         <v>90</v>
       </c>
@@ -2081,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="16" t="s">
         <v>100</v>
       </c>
@@ -2110,7 +2158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="16" t="s">
         <v>101</v>
       </c>
@@ -2121,7 +2169,7 @@
         <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
         <v>64</v>
@@ -2135,13 +2183,19 @@
       <c r="H16" s="8">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" s="8">
+        <v>5</v>
+      </c>
       <c r="K16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2150,7 +2204,7 @@
         <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
         <v>64</v>
@@ -2171,18 +2225,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>106</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
@@ -2200,18 +2254,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>109</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>111</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -2229,18 +2283,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
         <v>112</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
       </c>
       <c r="E20" t="s">
         <v>64</v>
@@ -2258,21 +2312,21 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>55</v>
@@ -2290,9 +2344,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2301,7 +2355,7 @@
         <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -2319,9 +2373,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2330,7 +2384,7 @@
         <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
         <v>64</v>
@@ -2348,9 +2402,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2359,7 +2413,7 @@
         <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -2380,18 +2434,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
         <v>123</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>124</v>
-      </c>
-      <c r="D25" t="s">
-        <v>125</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
@@ -2405,13 +2459,16 @@
       <c r="H25" s="8">
         <v>1</v>
       </c>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
       <c r="K25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2420,7 +2477,7 @@
         <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
         <v>55</v>
@@ -2441,9 +2498,258 @@
         <v>59</v>
       </c>
     </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2460,39 +2766,39 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
@@ -2511,9 +2817,9 @@
       <c r="F4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="12">
         <v>41969</v>
       </c>
@@ -2537,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2559,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7">
         <v>2</v>
       </c>
@@ -2581,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8">
         <v>3</v>
       </c>
@@ -2594,7 +2900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9">
         <v>4</v>
       </c>
@@ -2607,7 +2913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10">
         <v>5</v>
       </c>
@@ -2620,7 +2926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11">
         <v>6</v>
       </c>
@@ -2633,7 +2939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12">
         <v>7</v>
       </c>
@@ -2646,7 +2952,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13">
         <v>8</v>
       </c>
@@ -2659,7 +2965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14">
         <v>9</v>
       </c>
@@ -2672,7 +2978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15">
         <v>10</v>
       </c>
@@ -2685,7 +2991,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16">
         <v>11</v>
       </c>
@@ -2698,7 +3004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>12</v>
       </c>
@@ -2711,7 +3017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>13</v>
       </c>
@@ -2724,7 +3030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>14</v>
       </c>
@@ -2737,7 +3043,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>15</v>
       </c>
@@ -2750,7 +3056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>16</v>
       </c>
@@ -2763,7 +3069,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22">
         <v>17</v>
       </c>
@@ -2776,7 +3082,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23">
         <v>18</v>
       </c>
@@ -2789,7 +3095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24">
         <v>19</v>
       </c>
@@ -2802,7 +3108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25">
         <v>20</v>
       </c>

--- a/doc/task10/scrum_RED.xlsx
+++ b/doc/task10/scrum_RED.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="540" windowWidth="27540" windowHeight="16940" activeTab="1"/>
+    <workbookView xWindow="17160" yWindow="200" windowWidth="27540" windowHeight="16940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="5" r:id="rId2"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
-    <sheet name="Burndown Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="184">
   <si>
     <t>ID</t>
   </si>
@@ -118,30 +117,6 @@
   </si>
   <si>
     <t>Friday</t>
-  </si>
-  <si>
-    <t>Burndown chart</t>
-  </si>
-  <si>
-    <t>Burned down</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Daily Completed</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <t>Actual</t>
   </si>
   <si>
     <t>Raphael Zenhäusern</t>
@@ -600,9 +575,6 @@
     <t>3.7.</t>
   </si>
   <si>
-    <t>Presentation for target audience</t>
-  </si>
-  <si>
     <t>Presentation</t>
   </si>
   <si>
@@ -616,13 +588,16 @@
   </si>
   <si>
     <t>Log out possibility</t>
+  </si>
+  <si>
+    <t>schap18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,25 +637,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
@@ -701,7 +657,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,26 +688,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -768,32 +706,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -811,16 +734,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -842,18 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1179,11 +1080,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1217,68 +1118,68 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1351,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -1368,29 +1269,29 @@
     <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="28">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="28">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1399,19 +1300,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1419,37 +1320,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28">
@@ -1457,91 +1358,91 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28">
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="19" customFormat="1" ht="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" ht="28">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>62</v>
+        <v>129</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="19" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="13" customFormat="1">
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>62</v>
+        <v>127</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="19"/>
-      <c r="C13" s="18" t="s">
-        <v>136</v>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19">
+      <c r="A14" s="13">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28">
@@ -1549,77 +1450,77 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28">
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="C19" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28">
       <c r="C20" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="19" customFormat="1" ht="28">
-      <c r="C21" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="19" customFormat="1">
-      <c r="C22" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="28">
+      <c r="C21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="13" customFormat="1">
+      <c r="C22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1627,37 +1528,37 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28">
       <c r="C26" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28">
       <c r="C27" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28">
       <c r="C28" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28">
@@ -1665,21 +1566,21 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="C30" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1687,29 +1588,29 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="C32" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1727,13 +1628,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="55.6640625" bestFit="1" customWidth="1"/>
@@ -1747,7 +1648,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1768,13 +1669,13 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1782,23 +1683,23 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16" t="s">
-        <v>81</v>
+      <c r="A2" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1806,31 +1707,35 @@
       <c r="H2" s="8">
         <v>2</v>
       </c>
+      <c r="I2">
+        <f>(J2-H2)</f>
+        <v>0</v>
+      </c>
       <c r="J2" s="8">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
-        <v>82</v>
+      <c r="A3" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1838,344 +1743,395 @@
       <c r="H3" s="8">
         <v>5</v>
       </c>
+      <c r="I3">
+        <f>(J3-H3)</f>
+        <v>-3</v>
+      </c>
       <c r="J3" s="8">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16" t="s">
-        <v>83</v>
+      <c r="A4" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
       </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I36" si="0">(J4-H4)</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="8">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16" t="s">
-        <v>84</v>
+      <c r="A5" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H5" s="8">
         <v>3</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16" t="s">
-        <v>85</v>
+      <c r="A6" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H6" s="8">
         <v>10</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="J6" s="8">
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16" t="s">
-        <v>86</v>
+      <c r="A7" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H7" s="8">
         <v>4</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J7" s="8">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16" t="s">
-        <v>87</v>
+      <c r="A8" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
       <c r="H8" s="8">
         <v>2</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J8" s="8">
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16" t="s">
-        <v>88</v>
+      <c r="A9" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H9" s="8">
         <v>3</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
       <c r="J9" s="8">
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
         <v>89</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="8">
-        <v>2</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
         <v>94</v>
       </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="8">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -2184,33 +2140,34 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="J16" s="8">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="16" t="s">
-        <v>103</v>
+      <c r="A17" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -2218,31 +2175,35 @@
       <c r="H17" s="8">
         <v>2</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J17" s="8">
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="16" t="s">
-        <v>105</v>
+      <c r="A18" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -2250,28 +2211,35 @@
       <c r="H18" s="8">
         <v>2</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="16" t="s">
-        <v>108</v>
+      <c r="A19" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
         <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -2279,28 +2247,35 @@
       <c r="H19" s="8">
         <v>2</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="16" t="s">
-        <v>111</v>
+      <c r="A20" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -2308,31 +2283,35 @@
       <c r="H20" s="8">
         <v>2</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J20" s="8">
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="16" t="s">
-        <v>114</v>
+      <c r="A21" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -2340,28 +2319,32 @@
       <c r="H21" s="8">
         <v>3</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="16" t="s">
-        <v>118</v>
+      <c r="A22" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
@@ -2369,28 +2352,32 @@
       <c r="H22" s="8">
         <v>1</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="16" t="s">
-        <v>119</v>
+      <c r="A23" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
@@ -2398,28 +2385,32 @@
       <c r="H23" s="8">
         <v>1</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="16" t="s">
-        <v>120</v>
+      <c r="A24" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -2427,31 +2418,35 @@
       <c r="H24" s="8">
         <v>2</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J24" s="8">
         <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="16" t="s">
-        <v>122</v>
+      <c r="A25" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -2459,31 +2454,35 @@
       <c r="H25" s="8">
         <v>1</v>
       </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J25" s="8">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="16" t="s">
-        <v>166</v>
+      <c r="A26" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -2491,31 +2490,35 @@
       <c r="H26" s="8">
         <v>10</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J26" s="8">
         <v>10</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="16" t="s">
-        <v>170</v>
+      <c r="A28" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -2523,25 +2526,35 @@
       <c r="H28" s="8">
         <v>1</v>
       </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="16" t="s">
-        <v>173</v>
+      <c r="A29" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
         <v>6</v>
@@ -2549,31 +2562,35 @@
       <c r="H29" s="8">
         <v>1</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J29" s="8">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="16" t="s">
-        <v>176</v>
+      <c r="A30" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
@@ -2581,28 +2598,35 @@
       <c r="H30" s="8">
         <v>3</v>
       </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
+        <v>3</v>
+      </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="16" t="s">
-        <v>178</v>
+      <c r="A31" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
@@ -2610,28 +2634,35 @@
       <c r="H31" s="8">
         <v>2</v>
       </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>3</v>
+      </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="16" t="s">
-        <v>179</v>
+      <c r="A32" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
         <v>55</v>
-      </c>
-      <c r="F32" t="s">
-        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
@@ -2639,28 +2670,35 @@
       <c r="H32" s="8">
         <v>2</v>
       </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="16" t="s">
-        <v>180</v>
+      <c r="A33" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
@@ -2668,28 +2706,35 @@
       <c r="H33" s="8">
         <v>3</v>
       </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>3</v>
+      </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="16" t="s">
-        <v>183</v>
+      <c r="A34" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
@@ -2697,45 +2742,71 @@
       <c r="H34" s="8">
         <v>1</v>
       </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J34" s="8">
+        <v>3</v>
+      </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="16" t="s">
-        <v>185</v>
+      <c r="A35" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>178</v>
+      </c>
+      <c r="F35" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="16" t="s">
-        <v>189</v>
+      <c r="A36" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
@@ -2743,8 +2814,15 @@
       <c r="H36" s="8">
         <v>1</v>
       </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2756,383 +2834,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="12">
-        <v>41969</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>180</v>
-      </c>
-      <c r="F5" s="14">
-        <v>180</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" ref="G5:G25" si="0">IF(D5="",NA(),D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <f>IF(D6="",NA(),$F$5-SUM($D$6:D6))</f>
-        <v>180</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <f>IF(D7="",NA(),$F$5-SUM($D$6:D7))</f>
-        <v>180</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14" t="e">
-        <f>IF(D8="",NA(),$F$5-SUM($D$6:D8))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="14" t="e">
-        <f>IF(D9="",NA(),$F$5-SUM($D$6:D9))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="14" t="e">
-        <f>IF(D10="",NA(),$F$5-SUM($D$6:D10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="F11" s="14" t="e">
-        <f>IF(D11="",NA(),$F$5-SUM($D$6:D11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="F12" s="14" t="e">
-        <f>IF(D12="",NA(),$F$5-SUM($D$6:D12))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="14" t="e">
-        <f>IF(D13="",NA(),$F$5-SUM($D$6:D13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="F14" s="14" t="e">
-        <f>IF(D14="",NA(),$F$5-SUM($D$6:D14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="F15" s="14" t="e">
-        <f>IF(D15="",NA(),$F$5-SUM($D$6:D15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="F16" s="14" t="e">
-        <f>IF(D16="",NA(),$F$5-SUM($D$6:D16))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G16" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="F17" s="14" t="e">
-        <f>IF(D17="",NA(),$F$5-SUM($D$6:D17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="F18" s="14" t="e">
-        <f>IF(D18="",NA(),$F$5-SUM($D$6:D18))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="F19" s="14" t="e">
-        <f>IF(D19="",NA(),$F$5-SUM($D$6:D19))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="F20" s="14" t="e">
-        <f>IF(D20="",NA(),$F$5-SUM($D$6:D20))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="F21" s="14" t="e">
-        <f>IF(D21="",NA(),$F$5-SUM($D$6:D21))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22">
-        <v>17</v>
-      </c>
-      <c r="F22" s="14" t="e">
-        <f>IF(D22="",NA(),$F$5-SUM($D$6:D22))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23">
-        <v>18</v>
-      </c>
-      <c r="F23" s="14" t="e">
-        <f>IF(D23="",NA(),$F$5-SUM($D$6:D23))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="F24" s="14" t="e">
-        <f>IF(D24="",NA(),$F$5-SUM($D$6:D24))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="F25" s="14" t="e">
-        <f>IF(D25="",NA(),$F$5-SUM($D$6:D25))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>